--- a/reference_coastline_logbook.xlsx
+++ b/reference_coastline_logbook.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cgreene/Documents/GitHub/ice-shelf-geometry/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{94F1C680-4AEC-664B-9D10-C3A5B3EFBA6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5666E25F-BD2E-6E4E-85CA-FCCE497B94A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2420" yWindow="1600" windowWidth="28040" windowHeight="17440" xr2:uid="{44418842-AE8A-6E41-9129-5761ADCB1C94}"/>
+    <workbookView xWindow="1480" yWindow="3680" windowWidth="28040" windowHeight="17440" xr2:uid="{44418842-AE8A-6E41-9129-5761ADCB1C94}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="6">
   <si>
     <t>fraser modis</t>
   </si>
@@ -46,7 +46,10 @@
     <t>fraser S1a</t>
   </si>
   <si>
-    <t>reference</t>
+    <t>x</t>
+  </si>
+  <si>
+    <t>constraint</t>
   </si>
 </sst>
 </file>
@@ -410,20 +413,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8011D85E-BC39-3240-B622-2D041CAB50C9}">
-  <dimension ref="A2:G26"/>
+  <dimension ref="A2:I26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="13" style="1" customWidth="1"/>
+    <col min="1" max="1" width="6.83203125" customWidth="1"/>
+    <col min="2" max="2" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.6640625" style="1" customWidth="1"/>
-    <col min="5" max="7" width="10.83203125" style="1"/>
+    <col min="5" max="5" width="4.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="10.83203125" style="1"/>
+    <col min="8" max="8" width="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
@@ -437,94 +444,116 @@
         <v>3</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3">
         <v>1997.75</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="2">
         <v>1</v>
       </c>
       <c r="G3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4">
         <v>2000.2</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="2">
         <v>1</v>
       </c>
       <c r="G4" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="H4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I4">
+        <f>B4-B3</f>
+        <v>2.4500000000000455</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5">
         <v>2000.75</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="2">
         <v>2</v>
       </c>
       <c r="G5" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6">
         <v>2001.2</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="2">
         <v>2</v>
       </c>
       <c r="G6" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="H6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7">
         <v>2002.2</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="2">
         <v>3</v>
       </c>
       <c r="G7" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8">
         <v>2003.2</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="2">
         <v>4</v>
       </c>
       <c r="G8" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
@@ -540,64 +569,74 @@
       <c r="G9" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I9">
+        <f>B9-B5</f>
+        <v>3.4500000000000455</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10">
         <v>2005.2</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="2">
         <v>6</v>
       </c>
       <c r="G10" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11">
         <v>2006.2</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="2">
         <v>7</v>
       </c>
       <c r="G11" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12">
         <v>2007.2</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="2">
         <v>8</v>
       </c>
       <c r="G12" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>11</v>
       </c>
       <c r="B13">
         <v>2008.2</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="2">
         <v>9</v>
       </c>
       <c r="G13" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>12</v>
       </c>
@@ -614,63 +653,63 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>13</v>
       </c>
       <c r="B15">
         <v>2010.2</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15" s="2">
         <v>11</v>
       </c>
       <c r="G15" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>14</v>
       </c>
       <c r="B16">
         <v>2011.2</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16" s="2">
         <v>12</v>
       </c>
       <c r="G16" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>15</v>
       </c>
       <c r="B17">
         <v>2012.2</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17" s="2">
         <v>13</v>
       </c>
       <c r="G17" s="1">
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>16</v>
       </c>
       <c r="B18">
         <v>2013.2</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18" s="2">
         <v>14</v>
       </c>
       <c r="G18" s="1">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>17</v>
       </c>
@@ -687,7 +726,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>18</v>
       </c>
@@ -697,14 +736,17 @@
       <c r="D20" s="1">
         <v>16</v>
       </c>
-      <c r="F20" s="1">
+      <c r="F20" s="2">
         <v>1</v>
       </c>
       <c r="G20" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>19</v>
       </c>
@@ -714,14 +756,17 @@
       <c r="D21" s="1">
         <v>17</v>
       </c>
-      <c r="F21" s="1">
+      <c r="F21" s="2">
         <v>2</v>
       </c>
       <c r="G21" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>20</v>
       </c>
@@ -731,56 +776,68 @@
       <c r="D22" s="1">
         <v>18</v>
       </c>
-      <c r="F22" s="1">
+      <c r="F22" s="2">
         <v>3</v>
       </c>
       <c r="G22" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>21</v>
       </c>
       <c r="B23">
         <v>2018.2</v>
       </c>
-      <c r="F23" s="1">
+      <c r="F23" s="2">
         <v>4</v>
       </c>
       <c r="G23" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H23" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>22</v>
       </c>
       <c r="B24">
         <v>2019.2</v>
       </c>
-      <c r="F24" s="1">
+      <c r="F24" s="2">
         <v>5</v>
       </c>
       <c r="G24" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>23</v>
       </c>
       <c r="B25">
         <v>2020.2</v>
       </c>
-      <c r="F25" s="1">
+      <c r="F25" s="2">
         <v>6</v>
       </c>
       <c r="G25" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>24</v>
       </c>
@@ -790,11 +847,14 @@
       <c r="D26" s="1">
         <v>19</v>
       </c>
-      <c r="F26" s="1">
+      <c r="F26" s="2">
         <v>7</v>
       </c>
       <c r="G26" s="1">
         <v>17</v>
+      </c>
+      <c r="H26" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
